--- a/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_极光组.xlsx
+++ b/VersionRecords/Version 5.0.4.1 20161027/版本Bug和特性计划及评审表v5.0.4.1_极光组.xlsx
@@ -10,7 +10,7 @@
     <sheet name="版本5.0.4.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4.1 新特性|Fix Bug'!$A$1:$U$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'版本5.0.4.1 新特性|Fix Bug'!$A$1:$U$11</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="37">
   <si>
     <t>No</t>
   </si>
@@ -140,6 +140,10 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决消息已读未读次数不正确的问题</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -886,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V192"/>
+  <dimension ref="A1:V191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1096,23 +1100,55 @@
       <c r="V3" s="33"/>
     </row>
     <row r="4" spans="1:22" s="4" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="14"/>
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="14">
+        <v>42670</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="14">
+        <v>42670</v>
+      </c>
       <c r="K4" s="12"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="23"/>
+      <c r="L4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" s="14">
+        <v>42670</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
@@ -1143,7 +1179,7 @@
       <c r="U5" s="32"/>
       <c r="V5" s="33"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" ht="38.25" customHeight="1">
+    <row r="6" spans="1:22" s="5" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="10"/>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1154,18 +1190,18 @@
       <c r="H6" s="14"/>
       <c r="I6" s="12"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="12"/>
+      <c r="K6" s="13"/>
       <c r="L6" s="23"/>
       <c r="M6" s="12"/>
       <c r="N6" s="23"/>
       <c r="O6" s="23"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="23"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="33"/>
+      <c r="R6" s="25"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="35"/>
     </row>
     <row r="7" spans="1:22" s="5" customFormat="1" ht="38.25" customHeight="1">
       <c r="A7" s="10"/>
@@ -1185,27 +1221,27 @@
       <c r="O7" s="23"/>
       <c r="P7" s="14"/>
       <c r="Q7" s="23"/>
-      <c r="R7" s="25"/>
-      <c r="S7" s="25"/>
-      <c r="T7" s="25"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="27"/>
       <c r="U7" s="34"/>
       <c r="V7" s="35"/>
     </row>
-    <row r="8" spans="1:22" s="5" customFormat="1" ht="38.25" customHeight="1">
+    <row r="8" spans="1:22" s="5" customFormat="1" ht="43.5" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="14"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="13"/>
-      <c r="L8" s="23"/>
+      <c r="L8" s="26"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="23"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="23"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="23"/>
@@ -1215,7 +1251,7 @@
       <c r="U8" s="34"/>
       <c r="V8" s="35"/>
     </row>
-    <row r="9" spans="1:22" s="5" customFormat="1" ht="43.5" customHeight="1">
+    <row r="9" spans="1:22" s="5" customFormat="1" ht="16.5">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -1245,7 +1281,7 @@
       <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="13"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -1263,20 +1299,20 @@
       <c r="U10" s="34"/>
       <c r="V10" s="35"/>
     </row>
-    <row r="11" spans="1:22" s="5" customFormat="1" ht="16.5">
+    <row r="11" spans="1:22" s="5" customFormat="1" ht="18.75" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="13"/>
       <c r="L11" s="26"/>
-      <c r="M11" s="12"/>
+      <c r="M11" s="13"/>
       <c r="N11" s="12"/>
       <c r="O11" s="23"/>
       <c r="P11" s="14"/>
@@ -1287,7 +1323,7 @@
       <c r="U11" s="34"/>
       <c r="V11" s="35"/>
     </row>
-    <row r="12" spans="1:22" s="5" customFormat="1" ht="18.75" customHeight="1">
+    <row r="12" spans="1:22" s="5" customFormat="1" ht="16.5">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1335,35 +1371,35 @@
       <c r="U13" s="34"/>
       <c r="V13" s="35"/>
     </row>
-    <row r="14" spans="1:22" s="5" customFormat="1" ht="16.5">
+    <row r="14" spans="1:22" s="4" customFormat="1" ht="19.5">
       <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="16"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="12"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
-      <c r="H14" s="15"/>
+      <c r="H14" s="14"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="26"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="23"/>
       <c r="M14" s="13"/>
       <c r="N14" s="12"/>
       <c r="O14" s="23"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="23"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-    </row>
-    <row r="15" spans="1:22" s="4" customFormat="1" ht="19.5">
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="33"/>
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1" ht="16.5">
       <c r="A15" s="10"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="17"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="12"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
@@ -1461,13 +1497,13 @@
       <c r="C19" s="10"/>
       <c r="D19" s="16"/>
       <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
+      <c r="F19" s="12"/>
       <c r="G19" s="13"/>
       <c r="H19" s="14"/>
       <c r="I19" s="15"/>
       <c r="J19" s="14"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="23"/>
+      <c r="L19" s="26"/>
       <c r="M19" s="13"/>
       <c r="N19" s="12"/>
       <c r="O19" s="23"/>
@@ -1491,7 +1527,7 @@
       <c r="I20" s="15"/>
       <c r="J20" s="14"/>
       <c r="K20" s="12"/>
-      <c r="L20" s="26"/>
+      <c r="L20" s="23"/>
       <c r="M20" s="13"/>
       <c r="N20" s="12"/>
       <c r="O20" s="23"/>
@@ -1507,16 +1543,16 @@
       <c r="A21" s="10"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
-      <c r="D21" s="16"/>
+      <c r="D21" s="18"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="13"/>
+      <c r="G21" s="12"/>
       <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
+      <c r="I21" s="14"/>
       <c r="J21" s="14"/>
       <c r="K21" s="12"/>
       <c r="L21" s="23"/>
-      <c r="M21" s="13"/>
+      <c r="M21" s="12"/>
       <c r="N21" s="12"/>
       <c r="O21" s="23"/>
       <c r="P21" s="14"/>
@@ -1676,16 +1712,16 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="12"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
       <c r="O28" s="23"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="23"/>
@@ -1724,17 +1760,17 @@
       <c r="B30" s="10"/>
       <c r="C30" s="10"/>
       <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="23"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="19"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="23"/>
       <c r="R30" s="21"/>
@@ -1782,8 +1818,8 @@
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
       <c r="N32" s="21"/>
-      <c r="O32" s="19"/>
-      <c r="P32" s="14"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="20"/>
       <c r="Q32" s="23"/>
       <c r="R32" s="21"/>
       <c r="S32" s="21"/>
@@ -1816,9 +1852,9 @@
       <c r="V33" s="33"/>
     </row>
     <row r="34" spans="1:22" s="4" customFormat="1" ht="16.5">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
       <c r="D34" s="18"/>
       <c r="E34" s="21"/>
       <c r="F34" s="12"/>
@@ -1831,12 +1867,12 @@
       <c r="M34" s="21"/>
       <c r="N34" s="21"/>
       <c r="O34" s="21"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="23"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="30"/>
       <c r="R34" s="21"/>
       <c r="S34" s="21"/>
       <c r="T34" s="21"/>
-      <c r="U34" s="32"/>
+      <c r="U34" s="30"/>
       <c r="V34" s="33"/>
     </row>
     <row r="35" spans="1:22" s="4" customFormat="1" ht="16.5">
@@ -1863,10 +1899,10 @@
       <c r="U35" s="30"/>
       <c r="V35" s="33"/>
     </row>
-    <row r="36" spans="1:22" s="4" customFormat="1" ht="16.5">
-      <c r="A36" s="19"/>
-      <c r="B36" s="19"/>
-      <c r="C36" s="19"/>
+    <row r="36" spans="1:22" ht="16.5">
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="18"/>
       <c r="E36" s="21"/>
       <c r="F36" s="12"/>
@@ -1880,12 +1916,11 @@
       <c r="N36" s="21"/>
       <c r="O36" s="21"/>
       <c r="P36" s="22"/>
-      <c r="Q36" s="30"/>
+      <c r="Q36" s="18"/>
       <c r="R36" s="21"/>
       <c r="S36" s="21"/>
       <c r="T36" s="21"/>
-      <c r="U36" s="30"/>
-      <c r="V36" s="33"/>
+      <c r="U36" s="18"/>
     </row>
     <row r="37" spans="1:22" ht="16.5">
       <c r="A37" s="21"/>
@@ -2998,7 +3033,7 @@
       <c r="D85" s="18"/>
       <c r="E85" s="21"/>
       <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
+      <c r="G85" s="21"/>
       <c r="H85" s="22"/>
       <c r="I85" s="21"/>
       <c r="J85" s="22"/>
@@ -3129,13 +3164,13 @@
       <c r="T90" s="21"/>
       <c r="U90" s="18"/>
     </row>
-    <row r="91" spans="1:21" ht="16.5">
+    <row r="91" spans="1:21">
       <c r="A91" s="21"/>
       <c r="B91" s="21"/>
       <c r="C91" s="21"/>
       <c r="D91" s="18"/>
       <c r="E91" s="21"/>
-      <c r="F91" s="12"/>
+      <c r="F91" s="21"/>
       <c r="G91" s="21"/>
       <c r="H91" s="22"/>
       <c r="I91" s="21"/>
@@ -4665,9 +4700,6 @@
       <c r="O157" s="21"/>
       <c r="P157" s="22"/>
       <c r="Q157" s="18"/>
-      <c r="R157" s="21"/>
-      <c r="S157" s="21"/>
-      <c r="T157" s="21"/>
       <c r="U157" s="18"/>
     </row>
     <row r="158" spans="1:21">
@@ -5232,19 +5264,6 @@
     </row>
     <row r="186" spans="1:21">
       <c r="A186" s="21"/>
-      <c r="B186" s="21"/>
-      <c r="C186" s="21"/>
-      <c r="D186" s="18"/>
-      <c r="E186" s="21"/>
-      <c r="F186" s="21"/>
-      <c r="G186" s="21"/>
-      <c r="H186" s="22"/>
-      <c r="I186" s="21"/>
-      <c r="J186" s="22"/>
-      <c r="K186" s="29"/>
-      <c r="L186" s="21"/>
-      <c r="M186" s="21"/>
-      <c r="N186" s="21"/>
       <c r="O186" s="21"/>
       <c r="P186" s="22"/>
       <c r="Q186" s="18"/>
@@ -5259,7 +5278,6 @@
     </row>
     <row r="188" spans="1:21">
       <c r="A188" s="21"/>
-      <c r="O188" s="21"/>
       <c r="P188" s="22"/>
       <c r="Q188" s="18"/>
       <c r="U188" s="18"/>
@@ -5272,7 +5290,6 @@
     </row>
     <row r="190" spans="1:21">
       <c r="A190" s="21"/>
-      <c r="P190" s="22"/>
       <c r="Q190" s="18"/>
       <c r="U190" s="18"/>
     </row>
@@ -5281,13 +5298,8 @@
       <c r="Q191" s="18"/>
       <c r="U191" s="18"/>
     </row>
-    <row r="192" spans="1:21">
-      <c r="A192" s="21"/>
-      <c r="Q192" s="18"/>
-      <c r="U192" s="18"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U12">
+  <autoFilter ref="A1:U11">
     <filterColumn colId="1"/>
     <filterColumn colId="2"/>
   </autoFilter>
